--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_evaluation.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_evaluation.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -98,27 +98,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -140,14 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -457,91 +439,36 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_evaluation.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_evaluation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,49 +30,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>NSTDA</t>
-  </si>
-  <si>
-    <t>Supplier Evaluation Report</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>Work Acceptance</t>
-  </si>
-  <si>
-    <t>Contract End Date</t>
-  </si>
-  <si>
-    <t>Received Date</t>
-  </si>
-  <si>
-    <t>Receiving Score</t>
-  </si>
-  <si>
-    <t>Quality Score</t>
-  </si>
-  <si>
-    <t>Service Score</t>
-  </si>
-  <si>
-    <t>No,</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>รายงานการประเมินผู้ขาย</t>
+  </si>
+  <si>
+    <t>ประเภทผู้ขาย</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ขาย</t>
+  </si>
+  <si>
+    <t>กลุ่มผู้ขาย</t>
+  </si>
+  <si>
+    <t>จากวันที่</t>
+  </si>
+  <si>
+    <t>ถึงวันที่</t>
+  </si>
+  <si>
+    <t>ลำดับที่</t>
+  </si>
+  <si>
+    <t>รหัสผู้ขาย</t>
+  </si>
+  <si>
+    <t>เลขที่ใบสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>เลขที่ใบตรวจรับ</t>
+  </si>
+  <si>
+    <t>วันที่สิ้นสุดสัญญา</t>
+  </si>
+  <si>
+    <t>วันที่รับสินค้า</t>
+  </si>
+  <si>
+    <t>คะแนนส่งมอบ</t>
+  </si>
+  <si>
+    <t>คะแนนคุณภาพ</t>
+  </si>
+  <si>
+    <t>คะแนนบริการ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,14 +89,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,13 +142,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,6 +172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,65 +443,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20" style="7" customWidth="1"/>
+    <col min="6" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
